--- a/business-center/wms-center/wms-service/wms-business-chargerules/src/main/resources/template/discountDetail.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-chargerules/src/main/resources/template/discountDetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="折扣详情" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>产品代码</t>
   </si>
@@ -52,10 +52,16 @@
     <t>最大L+(W+H)*2</t>
   </si>
   <si>
-    <t>L*W*H</t>
-  </si>
-  <si>
-    <t>L+W+H</t>
+    <t>最大L*W*H</t>
+  </si>
+  <si>
+    <t>最大L+W+H</t>
+  </si>
+  <si>
+    <t>最小L*W*H</t>
+  </si>
+  <si>
+    <t>最小L+W+H</t>
   </si>
   <si>
     <t>偏远地区模板</t>
@@ -1034,10 +1040,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1046,11 +1052,12 @@
     <col min="4" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="9" width="13" customWidth="1"/>
     <col min="12" max="12" width="11.1333333333333" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="26" max="27" width="9" style="1"/>
+    <col min="15" max="16" width="16.75" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="28" max="29" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1108,16 +1115,16 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="X1" t="s">
@@ -1126,19 +1133,25 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD36">
       <formula1>"公开价,产品价,底价,VIP价"</formula1>
     </dataValidation>
   </dataValidations>
